--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_8_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_8_sawtooth_10_.xlsx
@@ -577,47 +577,47 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.97744051636073e-11</v>
+        <v>1.141077787814027e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>1.54504927370643e-09</v>
+        <v>5.159229751235991e-08</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>6.002091788220081</v>
+        <v>5.786861712847108</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.107015202737102, 7.89716837370306]</t>
+          <t>[3.7587098331745654, 7.81501359251965]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.066285060247196e-09</v>
+        <v>3.498788281319776e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>2.132570120494393e-09</v>
+        <v>6.997576562639551e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.484316048542925</v>
+        <v>-1.38368445203154</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8491055858966945, -1.1195265111891555]</t>
+          <t>[-1.8113687372049245, -0.9560001668581553]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>9.769962616701378e-15</v>
+        <v>4.811149256767067e-10</v>
       </c>
       <c r="R2" t="n">
-        <v>1.953992523340276e-14</v>
+        <v>4.811149256767067e-10</v>
       </c>
       <c r="S2" t="n">
-        <v>10.3781906151838</v>
+        <v>10.57268868283663</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.21032249019473, 11.546058740172864]</t>
+          <t>[9.344280666675832, 11.801096698997437]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.132692692692839</v>
+        <v>5.71691691691705</v>
       </c>
       <c r="X2" t="n">
-        <v>4.625505505505616</v>
+        <v>3.949869869869963</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.639879879880061</v>
+        <v>7.483963963964137</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.77000000000012</v>
+        <v>22.6700000000001</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002016382764574831</v>
+        <v>0.0002668698277130677</v>
       </c>
       <c r="H3" t="n">
-        <v>0.007203154268524302</v>
+        <v>0.001057968345742211</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.144389151799366</v>
+        <v>6.003696598938154</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[1.926516467367307, 8.362261836231426]</t>
+          <t>[2.3393002808404173, 9.66809291703589]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001876372789466618</v>
+        <v>0.001450976671246051</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001876372789466618</v>
+        <v>0.001450976671246051</v>
       </c>
       <c r="O3" t="n">
-        <v>3.062974218815274</v>
+        <v>2.861711025792505</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.207605648468503, 3.918342789162045]</t>
+          <t>[2.1698687997767347, 3.5535532518082746]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>3.020472760795201e-11</v>
+        <v>4.618527782440651e-14</v>
       </c>
       <c r="R3" t="n">
-        <v>3.020472760795201e-11</v>
+        <v>9.237055564881302e-14</v>
       </c>
       <c r="S3" t="n">
-        <v>10.73903366478628</v>
+        <v>11.30316861127206</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.73493924006062, 12.743128089511938]</t>
+          <t>[9.29235993288776, 13.313977289656357]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>11.66990990990997</v>
+        <v>12.34482482482488</v>
       </c>
       <c r="X3" t="n">
-        <v>8.570090090090133</v>
+        <v>9.848628628628672</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.76972972972981</v>
+        <v>14.84102102102109</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_8_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_8_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.96000000000062</v>
+        <v>25.72000000000058</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1.141077787814027e-09</v>
+        <v>2.123591635871946e-09</v>
       </c>
       <c r="H2" t="n">
-        <v>5.159229751235991e-08</v>
+        <v>5.444950623711975e-08</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.786861712847108</v>
+        <v>5.57419767016262</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[3.7587098331745654, 7.81501359251965]</t>
+          <t>[3.658182643549667, 7.490212696775574]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>3.498788281319776e-08</v>
+        <v>1.918477776641225e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>6.997576562639551e-08</v>
+        <v>3.836955553282451e-08</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.38368445203154</v>
+        <v>-1.635263443310002</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8113687372049245, -0.9560001668581553]</t>
+          <t>[-2.0377898293555416, -1.2327370572644627]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>4.811149256767067e-10</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="R2" t="n">
-        <v>4.811149256767067e-10</v>
+        <v>2.131628207280301e-14</v>
       </c>
       <c r="S2" t="n">
-        <v>10.57268868283663</v>
+        <v>10.31734063886265</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[9.344280666675832, 11.801096698997437]</t>
+          <t>[9.115592924115859, 11.519088353609437]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>5.71691691691705</v>
+        <v>6.693893893894046</v>
       </c>
       <c r="X2" t="n">
-        <v>3.949869869869963</v>
+        <v>5.046166166166279</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.483963963964137</v>
+        <v>8.341621621621812</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.6700000000001</v>
+        <v>22.70000000000011</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002668698277130677</v>
+        <v>0.0008240532373613441</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001057968345742211</v>
+        <v>0.002936357400323707</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.003696598938154</v>
+        <v>5.598511058137739</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.3393002808404173, 9.66809291703589]</t>
+          <t>[1.9893118215298617, 9.207710294745617]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.001450976671246051</v>
+        <v>0.002536472240543652</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001450976671246051</v>
+        <v>0.002536472240543652</v>
       </c>
       <c r="O3" t="n">
-        <v>2.861711025792505</v>
+        <v>2.861711025792504</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[2.1698687997767347, 3.5535532518082746]</t>
+          <t>[2.1069740519571187, 3.616447999627889]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>4.618527782440651e-14</v>
+        <v>2.726707748479384e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>9.237055564881302e-14</v>
+        <v>2.726707748479384e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>11.30316861127206</v>
+        <v>10.58729379270976</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[9.29235993288776, 13.313977289656357]</t>
+          <t>[8.555710512618035, 12.618877072801489]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>12.34482482482488</v>
+        <v>12.36116116116122</v>
       </c>
       <c r="X3" t="n">
-        <v>9.848628628628672</v>
+        <v>9.634434434434485</v>
       </c>
       <c r="Y3" t="n">
-        <v>14.84102102102109</v>
+        <v>15.08788788788796</v>
       </c>
     </row>
   </sheetData>
